--- a/data/output/FV2404_FV2310/UTILMD/55117.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55117.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9082" uniqueCount="590">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9103" uniqueCount="590">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1919,6 +1919,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U432" totalsRowShown="0">
+  <autoFilter ref="A1:U432"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2208,7 +2238,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22129,5 +22162,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55117.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55117.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11061" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10997" uniqueCount="1013">
   <si>
     <t>#</t>
   </si>
@@ -14546,9 +14546,7 @@
         <v>410</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L218" s="5"/>
       <c r="M218" s="2" t="s">
         <v>51</v>
       </c>
@@ -16906,9 +16904,7 @@
         <v>410</v>
       </c>
       <c r="K274" s="2"/>
-      <c r="L274" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L274" s="5"/>
       <c r="M274" s="2" t="s">
         <v>72</v>
       </c>
@@ -16962,9 +16958,7 @@
         <v>410</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L275" s="5"/>
       <c r="M275" s="2" t="s">
         <v>72</v>
       </c>
@@ -17018,9 +17012,7 @@
         <v>410</v>
       </c>
       <c r="K276" s="2"/>
-      <c r="L276" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L276" s="5"/>
       <c r="M276" s="2" t="s">
         <v>72</v>
       </c>
@@ -17710,9 +17702,7 @@
         <v>410</v>
       </c>
       <c r="K289" s="2"/>
-      <c r="L289" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L289" s="5"/>
       <c r="M289" s="2" t="s">
         <v>76</v>
       </c>
@@ -17766,9 +17756,7 @@
         <v>410</v>
       </c>
       <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L290" s="5"/>
       <c r="M290" s="2" t="s">
         <v>76</v>
       </c>
@@ -17822,9 +17810,7 @@
         <v>410</v>
       </c>
       <c r="K291" s="2"/>
-      <c r="L291" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L291" s="5"/>
       <c r="M291" s="2" t="s">
         <v>76</v>
       </c>
@@ -17878,9 +17864,7 @@
         <v>410</v>
       </c>
       <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L292" s="5"/>
       <c r="M292" s="2" t="s">
         <v>76</v>
       </c>
@@ -17934,9 +17918,7 @@
         <v>410</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L293" s="5"/>
       <c r="M293" s="2" t="s">
         <v>76</v>
       </c>
@@ -17990,9 +17972,7 @@
         <v>410</v>
       </c>
       <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L294" s="5"/>
       <c r="M294" s="2" t="s">
         <v>76</v>
       </c>
@@ -18104,9 +18084,7 @@
         <v>431</v>
       </c>
       <c r="K296" s="2"/>
-      <c r="L296" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L296" s="5"/>
       <c r="M296" s="2" t="s">
         <v>76</v>
       </c>
@@ -18160,9 +18138,7 @@
         <v>431</v>
       </c>
       <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L297" s="5"/>
       <c r="M297" s="2" t="s">
         <v>76</v>
       </c>
@@ -18216,9 +18192,7 @@
         <v>432</v>
       </c>
       <c r="K298" s="2"/>
-      <c r="L298" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L298" s="5"/>
       <c r="M298" s="2" t="s">
         <v>76</v>
       </c>
@@ -18274,9 +18248,7 @@
       <c r="K299" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="L299" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L299" s="5"/>
       <c r="M299" s="2" t="s">
         <v>76</v>
       </c>
@@ -18598,9 +18570,7 @@
         <v>410</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L305" s="5"/>
       <c r="M305" s="2" t="s">
         <v>78</v>
       </c>
@@ -18654,9 +18624,7 @@
         <v>410</v>
       </c>
       <c r="K306" s="2"/>
-      <c r="L306" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L306" s="5"/>
       <c r="M306" s="2" t="s">
         <v>78</v>
       </c>
@@ -18814,9 +18782,7 @@
         <v>410</v>
       </c>
       <c r="K309" s="2"/>
-      <c r="L309" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L309" s="5"/>
       <c r="M309" s="2" t="s">
         <v>79</v>
       </c>
@@ -19032,9 +18998,7 @@
         <v>410</v>
       </c>
       <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L313" s="5"/>
       <c r="M313" s="2" t="s">
         <v>80</v>
       </c>
@@ -19556,9 +19520,7 @@
       <c r="K323" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L323" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L323" s="5"/>
       <c r="M323" s="2" t="s">
         <v>83</v>
       </c>
@@ -20586,9 +20548,7 @@
         <v>410</v>
       </c>
       <c r="K342" s="2"/>
-      <c r="L342" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L342" s="5"/>
       <c r="M342" s="2" t="s">
         <v>57</v>
       </c>
@@ -20642,9 +20602,7 @@
         <v>410</v>
       </c>
       <c r="K343" s="2"/>
-      <c r="L343" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L343" s="5"/>
       <c r="M343" s="2" t="s">
         <v>57</v>
       </c>
@@ -20698,9 +20656,7 @@
         <v>410</v>
       </c>
       <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L344" s="5"/>
       <c r="M344" s="2" t="s">
         <v>57</v>
       </c>
@@ -21706,9 +21662,7 @@
         <v>410</v>
       </c>
       <c r="K363" s="2"/>
-      <c r="L363" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L363" s="5"/>
       <c r="M363" s="2" t="s">
         <v>90</v>
       </c>
@@ -22394,9 +22348,7 @@
         <v>410</v>
       </c>
       <c r="K376" s="2"/>
-      <c r="L376" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L376" s="5"/>
       <c r="M376" s="2" t="s">
         <v>93</v>
       </c>
@@ -22450,9 +22402,7 @@
         <v>410</v>
       </c>
       <c r="K377" s="2"/>
-      <c r="L377" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L377" s="5"/>
       <c r="M377" s="2" t="s">
         <v>93</v>
       </c>
@@ -22506,9 +22456,7 @@
         <v>410</v>
       </c>
       <c r="K378" s="2"/>
-      <c r="L378" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L378" s="5"/>
       <c r="M378" s="2" t="s">
         <v>93</v>
       </c>
@@ -23248,9 +23196,7 @@
         <v>410</v>
       </c>
       <c r="K392" s="2"/>
-      <c r="L392" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L392" s="5"/>
       <c r="M392" s="2" t="s">
         <v>96</v>
       </c>
@@ -23304,9 +23250,7 @@
         <v>410</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L393" s="5"/>
       <c r="M393" s="2" t="s">
         <v>96</v>
       </c>
@@ -23360,9 +23304,7 @@
         <v>410</v>
       </c>
       <c r="K394" s="2"/>
-      <c r="L394" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L394" s="5"/>
       <c r="M394" s="2" t="s">
         <v>96</v>
       </c>
@@ -23416,9 +23358,7 @@
         <v>410</v>
       </c>
       <c r="K395" s="2"/>
-      <c r="L395" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L395" s="5"/>
       <c r="M395" s="2" t="s">
         <v>96</v>
       </c>
@@ -23472,9 +23412,7 @@
         <v>410</v>
       </c>
       <c r="K396" s="2"/>
-      <c r="L396" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L396" s="5"/>
       <c r="M396" s="2" t="s">
         <v>96</v>
       </c>
@@ -24156,9 +24094,7 @@
         <v>410</v>
       </c>
       <c r="K409" s="2"/>
-      <c r="L409" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="L409" s="5"/>
       <c r="M409" s="2" t="s">
         <v>99</v>
       </c>
